--- a/data/trans_orig/FINALC_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/FINALC_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E09568CC-82D9-417F-9BFC-51FEC572FF73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B52B177E-3F48-4373-B870-1C9D31F092C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{73E724A9-72BF-4300-8C4C-5D23985BBDA6}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DD07C646-25B5-4A26-9F96-CA65353AC5F4}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="227">
   <si>
     <t>Población según el nivel de compresión del cuestionario en 2023 (Tasa respuesta: 99,94%)</t>
   </si>
@@ -95,7 +95,7 @@
     <t>0,04%</t>
   </si>
   <si>
-    <t>2,71%</t>
+    <t>2,53%</t>
   </si>
   <si>
     <t>0,99%</t>
@@ -104,568 +104,562 @@
     <t>0,05%</t>
   </si>
   <si>
-    <t>3,24%</t>
+    <t>3,5%</t>
   </si>
   <si>
     <t>0,79%</t>
   </si>
   <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>Buena</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>Excelente</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,01%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>76,3%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>79,15%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>77,72%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>73,16%</t>
+  </si>
+  <si>
+    <t>68,97%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
+  </si>
+  <si>
+    <t>72,25%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
     <t>0,21%</t>
   </si>
   <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>Buena</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>Excelente</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>76,89%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,01%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>78,08%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>76,3%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>79,15%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>77,72%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
     <t>0,1%</t>
   </si>
   <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>73,16%</t>
-  </si>
-  <si>
-    <t>69,06%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>74,62%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
     <t>1,28%</t>
   </si>
   <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
   </si>
   <si>
     <t>1,67%</t>
   </si>
   <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
   </si>
   <si>
     <t>17,82%</t>
@@ -674,13 +668,13 @@
     <t>16,25%</t>
   </si>
   <si>
-    <t>19,38%</t>
+    <t>19,18%</t>
   </si>
   <si>
     <t>18,28%</t>
   </si>
   <si>
-    <t>16,41%</t>
+    <t>16,53%</t>
   </si>
   <si>
     <t>19,53%</t>
@@ -689,37 +683,37 @@
     <t>18,06%</t>
   </si>
   <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
   </si>
   <si>
     <t>80,85%</t>
   </si>
   <si>
-    <t>79,21%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
   </si>
   <si>
     <t>79,6%</t>
   </si>
   <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
+    <t>78,28%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
   </si>
   <si>
     <t>80,19%</t>
   </si>
   <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1134,7 +1128,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{331E7043-123B-4142-9FFA-0189DCAE6CAE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB06B633-DF18-4B8E-99FD-BD74E694CFDB}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1841,10 +1835,10 @@
         <v>17</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M15" s="7">
         <v>14</v>
@@ -1853,13 +1847,13 @@
         <v>10786</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1874,13 +1868,13 @@
         <v>83433</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H16" s="7">
         <v>156</v>
@@ -1889,13 +1883,13 @@
         <v>95291</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M16" s="7">
         <v>244</v>
@@ -1904,13 +1898,13 @@
         <v>178724</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1925,13 +1919,13 @@
         <v>466364</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H17" s="7">
         <v>683</v>
@@ -1940,13 +1934,13 @@
         <v>484694</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M17" s="7">
         <v>1133</v>
@@ -1955,13 +1949,13 @@
         <v>951057</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2017,7 +2011,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2029,13 +2023,13 @@
         <v>1076</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2050,7 +2044,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -2059,13 +2053,13 @@
         <v>1076</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2080,13 +2074,13 @@
         <v>1350</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="H20" s="7">
         <v>15</v>
@@ -2098,10 +2092,10 @@
         <v>115</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>17</v>
+        <v>116</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M20" s="7">
         <v>17</v>
@@ -2110,13 +2104,13 @@
         <v>9768</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>118</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>119</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2131,13 +2125,13 @@
         <v>131210</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="H21" s="7">
         <v>240</v>
@@ -2146,13 +2140,13 @@
         <v>144875</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="M21" s="7">
         <v>378</v>
@@ -2161,7 +2155,7 @@
         <v>276085</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>126</v>
@@ -2322,7 +2316,7 @@
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2337,13 +2331,13 @@
         <v>2274</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>79</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H25" s="7">
         <v>15</v>
@@ -2352,13 +2346,13 @@
         <v>8922</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M25" s="7">
         <v>18</v>
@@ -2367,13 +2361,13 @@
         <v>11196</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2651,7 +2645,7 @@
         <v>183</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>184</v>
+        <v>124</v>
       </c>
       <c r="H31" s="7">
         <v>427</v>
@@ -2660,13 +2654,13 @@
         <v>225129</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M31" s="7">
         <v>625</v>
@@ -2675,13 +2669,13 @@
         <v>360948</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2693,16 +2687,16 @@
         <v>796</v>
       </c>
       <c r="D32" s="7">
-        <v>535726</v>
+        <v>535727</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H32" s="7">
         <v>1186</v>
@@ -2711,13 +2705,13 @@
         <v>751046</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M32" s="7">
         <v>1982</v>
@@ -2726,13 +2720,13 @@
         <v>1286773</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2744,7 +2738,7 @@
         <v>1028</v>
       </c>
       <c r="D33" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>46</v>
@@ -2803,10 +2797,10 @@
         <v>21</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>113</v>
+        <v>199</v>
       </c>
       <c r="H34" s="7">
         <v>8</v>
@@ -2815,13 +2809,13 @@
         <v>3802</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>200</v>
+        <v>87</v>
       </c>
       <c r="M34" s="7">
         <v>11</v>
@@ -2836,7 +2830,7 @@
         <v>18</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2866,13 +2860,13 @@
         <v>77115</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="M35" s="7">
         <v>188</v>
@@ -2881,13 +2875,13 @@
         <v>120346</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2902,13 +2896,13 @@
         <v>602866</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="H36" s="7">
         <v>1125</v>
@@ -2917,13 +2911,13 @@
         <v>695967</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="M36" s="7">
         <v>1772</v>
@@ -2932,13 +2926,13 @@
         <v>1298833</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2953,13 +2947,13 @@
         <v>2736110</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="H37" s="7">
         <v>4094</v>
@@ -2968,13 +2962,13 @@
         <v>3030680</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M37" s="7">
         <v>6767</v>
@@ -2983,13 +2977,13 @@
         <v>5766789</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3045,7 +3039,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/FINALC_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/FINALC_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B52B177E-3F48-4373-B870-1C9D31F092C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB8816FD-08DE-4600-B9C4-B54105534369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DD07C646-25B5-4A26-9F96-CA65353AC5F4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7F21778C-BC24-4214-ABF9-FB892E9B90F1}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1128,7 +1128,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB06B633-DF18-4B8E-99FD-BD74E694CFDB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24F384A4-9435-4830-83BF-C9B71E97D3F5}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
